--- a/data/trans_orig/Q02D_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q02D_R-Habitat-trans_orig.xlsx
@@ -666,10 +666,10 @@
         <v>4.777493070922109</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6.431838397620712</v>
+        <v>6.431838397620711</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6.566827693243482</v>
+        <v>6.566827693243485</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>4.953080434726584</v>
@@ -693,7 +693,7 @@
         <v>7.392486530071384</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>7.706355597667883</v>
+        <v>7.706355597667882</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.665909658133744</v>
+        <v>2.659475230342669</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.261172908061336</v>
+        <v>4.204837036956</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.638307982538561</v>
+        <v>5.656783920756687</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5.159629829535179</v>
+        <v>5.240993618931211</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>4.300258475576585</v>
+        <v>4.348367633359495</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>6.317630533488477</v>
+        <v>6.277698576225268</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>7.351722935889307</v>
+        <v>7.395613136211576</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>7.321406417273725</v>
+        <v>7.334561343048464</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>3.817246128801843</v>
+        <v>3.823979421955906</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5.598991438214164</v>
+        <v>5.596089070670968</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6.818675671714057</v>
+        <v>6.847335531773783</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>6.573081802698404</v>
+        <v>6.650549669689658</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.931964674509073</v>
+        <v>4.026196009580691</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.395759615707504</v>
+        <v>5.340924741786724</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.395159892516914</v>
+        <v>7.48957883744759</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.477486092383234</v>
+        <v>8.41201548257062</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.720707331399263</v>
+        <v>5.706495584873221</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.274975693536819</v>
+        <v>7.279929707929963</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>9.077790824657562</v>
+        <v>9.129817585816721</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>10.49218000503531</v>
+        <v>10.58511940332197</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.874760233710008</v>
+        <v>4.824014493265512</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6.351500499179877</v>
+        <v>6.330997313691169</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>8.004458844076574</v>
+        <v>8.053301717920966</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>8.978534039721993</v>
+        <v>9.050085135897753</v>
       </c>
     </row>
     <row r="7">
@@ -808,7 +808,7 @@
         <v>6.038182653570539</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>6.203531778680168</v>
+        <v>6.203531778680169</v>
       </c>
       <c r="H7" s="5" t="n">
         <v>6.746249824544964</v>
@@ -817,13 +817,13 @@
         <v>7.884070689220547</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>7.480444198843166</v>
+        <v>7.480444198843165</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>5.410977390298931</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6.119431254243437</v>
+        <v>6.119431254243436</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>6.983303364128814</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.58041409138617</v>
+        <v>3.547920600439656</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>4.73141158271914</v>
+        <v>4.78162120854684</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5.023979486491682</v>
+        <v>5.093471553908251</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5.100324147289553</v>
+        <v>5.125458405199495</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>5.588476626638109</v>
+        <v>5.608658627054384</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>6.371114470201423</v>
+        <v>6.381815476309733</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>7.302196442993917</v>
+        <v>7.332902494769679</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>6.769294631238462</v>
+        <v>6.731064918077792</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>4.978275076216127</v>
+        <v>4.957785389848198</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5.834361667971937</v>
+        <v>5.816920989851278</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>6.582715250088507</v>
+        <v>6.5737114778792</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>6.306929462330461</v>
+        <v>6.335208797630461</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.973985859514439</v>
+        <v>5.008484157224252</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.606699044197929</v>
+        <v>5.652767159866373</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.433691340111257</v>
+        <v>6.323901525295615</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.689825611852202</v>
+        <v>7.342764683718486</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>6.914552858740831</v>
+        <v>6.913810940380688</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>7.184702488958895</v>
+        <v>7.156726041421719</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>8.562936884523078</v>
+        <v>8.566053365509022</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>8.239101345630814</v>
+        <v>8.277221186037076</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>5.984537463269863</v>
+        <v>5.968917338710011</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6.441716850276062</v>
+        <v>6.429674625838935</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7.544052423042276</v>
+        <v>7.527267719632497</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>7.624793547307898</v>
+        <v>7.715060623210506</v>
       </c>
     </row>
     <row r="10">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>4.489190646365336</v>
+        <v>4.489190646365337</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>4.922236612285557</v>
@@ -941,13 +941,13 @@
         <v>8.705574886070977</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6.684855357518186</v>
+        <v>6.684855357518185</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>6.750683924819234</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>6.931864147762827</v>
+        <v>6.931864147762826</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>11.17559846360454</v>
@@ -956,7 +956,7 @@
         <v>8.909105185362801</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>5.863482500787195</v>
+        <v>5.863482500787196</v>
       </c>
       <c r="L10" s="5" t="n">
         <v>6.167328462663856</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.85140991999659</v>
+        <v>3.864303853850928</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.536857439834921</v>
+        <v>4.51660238337758</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7.762666708517391</v>
+        <v>7.83848524387519</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.651109760759357</v>
+        <v>4.616097198520031</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>6.023843133826653</v>
+        <v>5.984841525028652</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>6.474207039065321</v>
+        <v>6.455970476801821</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>10.36550882568772</v>
+        <v>10.26150895441804</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>7.608809784428121</v>
+        <v>7.599039364160037</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>5.341213992404707</v>
+        <v>5.289227791690302</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5.831727708280971</v>
+        <v>5.845571709655881</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9.558947658983211</v>
+        <v>9.53046096861739</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>6.939149359588183</v>
+        <v>7.023938102829026</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.431743559331977</v>
+        <v>5.283676526531273</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.435521983120967</v>
+        <v>5.384039731184818</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.695320473566003</v>
+        <v>9.905936037353728</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11.3346088942084</v>
+        <v>11.6390680581324</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.617998500137364</v>
+        <v>7.557823836781598</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.364892245754049</v>
+        <v>7.342762304680593</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>12.12844128143496</v>
+        <v>12.01026315892705</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>10.73297514723402</v>
+        <v>10.70352144517499</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>6.501085914041978</v>
+        <v>6.437801179734924</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6.525866367696289</v>
+        <v>6.499483260262488</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>10.9662909485748</v>
+        <v>10.89936491366722</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>9.94884846265154</v>
+        <v>9.752289152078069</v>
       </c>
     </row>
     <row r="13">
@@ -1092,16 +1092,16 @@
         <v>7.379352915208218</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>5.72421818854206</v>
+        <v>5.724218188542061</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5.866647398397578</v>
+        <v>5.866647398397577</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>8.417428263048915</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>6.669613579469177</v>
+        <v>6.669613579469175</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.403056996082439</v>
+        <v>3.361085250482186</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.298237087944327</v>
+        <v>4.266153618279169</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6.725580538847277</v>
+        <v>6.611808323683134</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4.641659555890326</v>
+        <v>4.634088837137551</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>6.188118111574791</v>
+        <v>6.180082266211832</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>6.218369861373935</v>
+        <v>6.26731207883426</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>8.344006571228732</v>
+        <v>8.289502785214159</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>6.221767535771248</v>
+        <v>6.332228834134993</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>5.263465829147927</v>
+        <v>5.25619902849379</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5.577992816828609</v>
+        <v>5.568663570973031</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7.918895852639801</v>
+        <v>7.868580486930084</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>5.899913598024062</v>
+        <v>5.89965796173988</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.641641341436728</v>
+        <v>4.61776229331795</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.271226295663867</v>
+        <v>5.216361817779826</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.404875811311337</v>
+        <v>8.37482989266732</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.142001358142971</v>
+        <v>6.901458361041369</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>7.531446583066625</v>
+        <v>7.625829811312171</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>6.992284862847305</v>
+        <v>7.015414920605799</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>9.754759120679676</v>
+        <v>9.790305926299437</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>8.657198328448981</v>
+        <v>8.686772735265471</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>6.251352241991256</v>
+        <v>6.306197491890004</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>6.174019339675063</v>
+        <v>6.149611103932491</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>9.029752590711283</v>
+        <v>9.00505593213088</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>7.61806980527311</v>
+        <v>7.578510829805459</v>
       </c>
     </row>
     <row r="16">
@@ -1222,16 +1222,16 @@
         <v>6.757266584126868</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>8.961910241226553</v>
+        <v>8.961910241226555</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>7.930097976943477</v>
+        <v>7.93009797694348</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>5.344440530702362</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6.034071751229832</v>
+        <v>6.034071751229833</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>8.129569667314652</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.644581461963075</v>
+        <v>3.650941753542623</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.692205972485391</v>
+        <v>4.682991712941492</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.448770960987409</v>
+        <v>6.499607612830713</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5.497634883101365</v>
+        <v>5.434826932703897</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>5.864502835868341</v>
+        <v>5.878114605525252</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>6.533274304152508</v>
+        <v>6.540786250274529</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>8.573258021119511</v>
+        <v>8.605359241962518</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>7.347813429173589</v>
+        <v>7.380504150069722</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>5.079761788589837</v>
+        <v>5.087358914033572</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5.870063927922038</v>
+        <v>5.875252035147895</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7.874085367731793</v>
+        <v>7.833161470058566</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>6.739895447038279</v>
+        <v>6.798106641846479</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.363671523177787</v>
+        <v>4.322906780933084</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.153444691603068</v>
+        <v>5.163339857580088</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.310188404727816</v>
+        <v>7.365005242185354</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.015123261330483</v>
+        <v>7.015620344490151</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>6.554524582296491</v>
+        <v>6.560538917187563</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.981092088611613</v>
+        <v>6.97737893968058</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>9.363827228563752</v>
+        <v>9.361121645273121</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>8.523923552788748</v>
+        <v>8.587694828535996</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.595733349135844</v>
+        <v>5.61218116304787</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6.203524814325197</v>
+        <v>6.190302794051557</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>8.455177643265509</v>
+        <v>8.444122861623887</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>7.709904503175761</v>
+        <v>7.776249267272196</v>
       </c>
     </row>
     <row r="19">
